--- a/cantera_simulations/Graaf_data/Feed_3.xlsx
+++ b/cantera_simulations/Graaf_data/Feed_3.xlsx
@@ -1,22 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blais.ch/_01_code/meOH-synthesis/cantera_simulations/Graaf_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blais.ch/_01_code/05_Project_repos_Github/meOH_repos/meOH-analysis/cantera_simulations/Graaf_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE077A70-B6DD-0742-84EB-C887B68B584F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418E5C5F-A815-1740-84A0-3641FC281B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>p (bar)</t>
+  </si>
+  <si>
+    <t>T(K)</t>
+  </si>
+  <si>
+    <t>10^6 * V (M^3/s)</t>
+  </si>
+  <si>
+    <t>feed Yco</t>
+  </si>
+  <si>
+    <t>feed Yco2</t>
+  </si>
+  <si>
+    <t>feed Yh2</t>
+  </si>
+  <si>
+    <t>Yco</t>
+  </si>
+  <si>
+    <t>Yco2</t>
+  </si>
+  <si>
+    <t>Yh2</t>
+  </si>
+  <si>
+    <t>Ych3oh</t>
+  </si>
+  <si>
+    <t>Yh2o</t>
+  </si>
+  <si>
+    <t>Yrest</t>
+  </si>
+  <si>
+    <t>wcat (g)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -74,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -91,6 +147,11 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,11 +466,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.83203125" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
@@ -419,233 +482,323 @@
     <col min="10" max="10" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2">
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
         <v>15</v>
-      </c>
-      <c r="C1" s="3">
-        <v>483.5</v>
-      </c>
-      <c r="D1" s="3">
-        <v>5.44</v>
-      </c>
-      <c r="E1" s="4">
-        <v>0.22059999999999999</v>
-      </c>
-      <c r="F1" s="4">
-        <v>0.15359999999999999</v>
-      </c>
-      <c r="G1" s="4">
-        <v>0.61850000000000005</v>
-      </c>
-      <c r="H1" s="4">
-        <v>5.5999999999999999E-3</v>
-      </c>
-      <c r="I1" s="4">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="J1" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3">
-        <v>15.2</v>
       </c>
       <c r="C2" s="3">
         <v>483.5</v>
       </c>
       <c r="D2" s="3">
-        <v>12.42</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.221</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0.15379999999999999</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0.62129999999999996</v>
+        <v>5.44</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.625</v>
       </c>
       <c r="H2" s="4">
-        <v>3.2000000000000002E-3</v>
+        <v>0.22059999999999999</v>
       </c>
       <c r="I2" s="4">
-        <v>6.9999999999999999E-4</v>
+        <v>0.15359999999999999</v>
       </c>
       <c r="J2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="K2" s="4">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>29.7</v>
+        <v>15.2</v>
       </c>
       <c r="C3" s="3">
         <v>483.5</v>
       </c>
       <c r="D3" s="3">
-        <v>5.48</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.2195</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.15329999999999999</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.61399999999999999</v>
+        <v>12.42</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.625</v>
       </c>
       <c r="H3" s="4">
-        <v>9.7999999999999997E-3</v>
+        <v>0.221</v>
       </c>
       <c r="I3" s="4">
-        <v>3.3999999999999998E-3</v>
+        <v>0.15379999999999999</v>
       </c>
       <c r="J3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.62129999999999996</v>
+      </c>
+      <c r="K3" s="4">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="L3" s="4">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="C4" s="3">
         <v>483.5</v>
       </c>
       <c r="D4" s="3">
-        <v>13.67</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.22109999999999999</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.15340000000000001</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.61909999999999998</v>
+        <v>5.48</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.625</v>
       </c>
       <c r="H4" s="4">
-        <v>4.4999999999999997E-3</v>
+        <v>0.2195</v>
       </c>
       <c r="I4" s="4">
-        <v>1.9E-3</v>
+        <v>0.15329999999999999</v>
       </c>
       <c r="J4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="K4" s="4">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="L4" s="4">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>49.8</v>
+        <v>29.5</v>
       </c>
       <c r="C5" s="3">
         <v>483.5</v>
       </c>
       <c r="D5" s="3">
-        <v>7.09</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.21909999999999999</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.15279999999999999</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.61099999999999999</v>
+        <v>13.67</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.625</v>
       </c>
       <c r="H5" s="4">
-        <v>1.26E-2</v>
+        <v>0.22109999999999999</v>
       </c>
       <c r="I5" s="4">
+        <v>0.15340000000000001</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.61909999999999998</v>
+      </c>
+      <c r="K5" s="4">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L5" s="4">
+        <v>1.9E-3</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>49.2</v>
+        <v>49.8</v>
       </c>
       <c r="C6" s="3">
         <v>483.5</v>
       </c>
       <c r="D6" s="3">
+        <v>7.09</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.21909999999999999</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.15279999999999999</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1.26E-2</v>
+      </c>
+      <c r="L6" s="4">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>49.2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>483.5</v>
+      </c>
+      <c r="D7" s="3">
         <v>13.62</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E7" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="H7" s="4">
         <v>0.221</v>
       </c>
-      <c r="F6" s="4">
+      <c r="I7" s="4">
         <v>0.15260000000000001</v>
       </c>
-      <c r="G6" s="4">
+      <c r="J7" s="4">
         <v>0.61609999999999998</v>
       </c>
-      <c r="H6" s="4">
+      <c r="K7" s="4">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I6" s="4">
+      <c r="L7" s="4">
         <v>3.3E-3</v>
       </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3">
-        <v>499.3</v>
-      </c>
-      <c r="D7" s="3">
-        <v>6.76</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.219</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.153</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.6169</v>
-      </c>
-      <c r="H7" s="4">
-        <v>8.5000000000000006E-3</v>
-      </c>
-      <c r="I7" s="4">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>8</v>
       </c>
       <c r="B8" s="2">
         <v>15</v>
@@ -654,190 +807,268 @@
         <v>499.3</v>
       </c>
       <c r="D8" s="3">
-        <v>12.72</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.2205</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.1527</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.62019999999999997</v>
+        <v>6.76</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.625</v>
       </c>
       <c r="H8" s="4">
-        <v>4.5999999999999999E-3</v>
+        <v>0.219</v>
       </c>
       <c r="I8" s="4">
-        <v>2E-3</v>
+        <v>0.153</v>
       </c>
       <c r="J8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.6169</v>
+      </c>
+      <c r="K8" s="4">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="L8" s="4">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3">
-        <v>29.5</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>15</v>
       </c>
       <c r="C9" s="3">
         <v>499.3</v>
       </c>
       <c r="D9" s="3">
-        <v>9.3699999999999992</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.21879999999999999</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.1545</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0.6099</v>
+        <v>12.72</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.625</v>
       </c>
       <c r="H9" s="4">
-        <v>1.3100000000000001E-2</v>
+        <v>0.2205</v>
       </c>
       <c r="I9" s="4">
-        <v>3.7000000000000002E-3</v>
+        <v>0.1527</v>
       </c>
       <c r="J9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.62019999999999997</v>
+      </c>
+      <c r="K9" s="4">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="L9" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>29.9</v>
+        <v>29.5</v>
       </c>
       <c r="C10" s="3">
         <v>499.3</v>
       </c>
       <c r="D10" s="3">
-        <v>16.649999999999999</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.2208</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.15390000000000001</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.61480000000000001</v>
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.625</v>
       </c>
       <c r="H10" s="4">
-        <v>7.6E-3</v>
+        <v>0.21879999999999999</v>
       </c>
       <c r="I10" s="4">
-        <v>2.8999999999999998E-3</v>
+        <v>0.1545</v>
       </c>
       <c r="J10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.6099</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="L10" s="4">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>49.9</v>
+        <v>29.9</v>
       </c>
       <c r="C11" s="3">
         <v>499.3</v>
       </c>
       <c r="D11" s="3">
-        <v>7.34</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.21440000000000001</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.15640000000000001</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0.59819999999999995</v>
+        <v>16.649999999999999</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.625</v>
       </c>
       <c r="H11" s="4">
-        <v>2.52E-2</v>
+        <v>0.2208</v>
       </c>
       <c r="I11" s="4">
-        <v>5.7000000000000002E-3</v>
+        <v>0.15390000000000001</v>
       </c>
       <c r="J11" s="4">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.61480000000000001</v>
+      </c>
+      <c r="K11" s="4">
+        <v>7.6E-3</v>
+      </c>
+      <c r="L11" s="4">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>50.5</v>
+        <v>49.9</v>
       </c>
       <c r="C12" s="3">
         <v>499.3</v>
       </c>
       <c r="D12" s="3">
+        <v>7.34</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.21440000000000001</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.15640000000000001</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.59819999999999995</v>
+      </c>
+      <c r="K12" s="4">
+        <v>2.52E-2</v>
+      </c>
+      <c r="L12" s="4">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="M12" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="N12" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>50.5</v>
+      </c>
+      <c r="C13" s="3">
+        <v>499.3</v>
+      </c>
+      <c r="D13" s="3">
         <v>16.649999999999999</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E13" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="H13" s="4">
         <v>0.21940000000000001</v>
       </c>
-      <c r="F12" s="4">
+      <c r="I13" s="4">
         <v>0.154</v>
       </c>
-      <c r="G12" s="4">
+      <c r="J13" s="4">
         <v>0.60899999999999999</v>
       </c>
-      <c r="H12" s="4">
+      <c r="K13" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="I12" s="4">
+      <c r="L13" s="4">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>13</v>
-      </c>
-      <c r="B13" s="3">
-        <v>15.2</v>
-      </c>
-      <c r="C13" s="3">
-        <v>516.70000000000005</v>
-      </c>
-      <c r="D13" s="3">
-        <v>7.58</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.21540000000000001</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.1517</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0.61670000000000003</v>
-      </c>
-      <c r="H13" s="4">
-        <v>1.23E-2</v>
-      </c>
-      <c r="I13" s="4">
-        <v>3.8999999999999998E-3</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>14</v>
       </c>
       <c r="B14" s="3">
         <v>15.2</v>
@@ -846,538 +1077,804 @@
         <v>516.70000000000005</v>
       </c>
       <c r="D14" s="3">
-        <v>15.61</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.21740000000000001</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0.15090000000000001</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0.622</v>
+        <v>7.58</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.625</v>
       </c>
       <c r="H14" s="4">
-        <v>6.7999999999999996E-3</v>
+        <v>0.21540000000000001</v>
       </c>
       <c r="I14" s="4">
-        <v>2.8999999999999998E-3</v>
+        <v>0.1517</v>
       </c>
       <c r="J14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.61670000000000003</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1.23E-2</v>
+      </c>
+      <c r="L14" s="4">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>30.3</v>
+        <v>15.2</v>
       </c>
       <c r="C15" s="3">
         <v>516.70000000000005</v>
       </c>
       <c r="D15" s="3">
-        <v>6.57</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.20649999999999999</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0.15509999999999999</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0.60199999999999998</v>
+        <v>15.61</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.625</v>
       </c>
       <c r="H15" s="4">
-        <v>3.0800000000000001E-2</v>
+        <v>0.21740000000000001</v>
       </c>
       <c r="I15" s="4">
-        <v>5.4999999999999997E-3</v>
+        <v>0.15090000000000001</v>
       </c>
       <c r="J15" s="4">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.622</v>
+      </c>
+      <c r="K15" s="4">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="L15" s="4">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="C16" s="3">
         <v>516.70000000000005</v>
       </c>
       <c r="D16" s="3">
-        <v>13.31</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.21229999999999999</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.152</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0.61240000000000006</v>
+        <v>6.57</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.625</v>
       </c>
       <c r="H16" s="4">
-        <v>1.8700000000000001E-2</v>
+        <v>0.20649999999999999</v>
       </c>
       <c r="I16" s="4">
-        <v>4.4999999999999997E-3</v>
+        <v>0.15509999999999999</v>
       </c>
       <c r="J16" s="4">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="K16" s="4">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="L16" s="4">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="M16" s="4">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N16" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2">
-        <v>50</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>30.1</v>
       </c>
       <c r="C17" s="3">
         <v>516.70000000000005</v>
       </c>
       <c r="D17" s="3">
-        <v>6.88</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.19969999999999999</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0.1628</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0.57899999999999996</v>
+        <v>13.31</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.625</v>
       </c>
       <c r="H17" s="4">
-        <v>5.11E-2</v>
+        <v>0.21229999999999999</v>
       </c>
       <c r="I17" s="4">
-        <v>7.1999999999999998E-3</v>
+        <v>0.152</v>
       </c>
       <c r="J17" s="4">
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.61240000000000006</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="L17" s="4">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="M17" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="N17" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>18</v>
-      </c>
-      <c r="B18" s="3">
-        <v>50.7</v>
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>50</v>
       </c>
       <c r="C18" s="3">
         <v>516.70000000000005</v>
       </c>
       <c r="D18" s="3">
+        <v>6.88</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.19969999999999999</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.1628</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="K18" s="4">
+        <v>5.11E-2</v>
+      </c>
+      <c r="L18" s="4">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="M18" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="N18" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>50.7</v>
+      </c>
+      <c r="C19" s="3">
+        <v>516.70000000000005</v>
+      </c>
+      <c r="D19" s="3">
         <v>16.21</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E19" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="H19" s="4">
         <v>0.2122</v>
       </c>
-      <c r="F18" s="4">
+      <c r="I19" s="4">
         <v>0.156</v>
       </c>
-      <c r="G18" s="4">
+      <c r="J19" s="4">
         <v>0.59860000000000002</v>
       </c>
-      <c r="H18" s="4">
+      <c r="K19" s="4">
         <v>2.7099999999999999E-2</v>
       </c>
-      <c r="I18" s="4">
+      <c r="L19" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="J18" s="4">
+      <c r="M19" s="4">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="N19" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B20" s="2">
         <v>15</v>
-      </c>
-      <c r="C19" s="3">
-        <v>532.4</v>
-      </c>
-      <c r="D19" s="3">
-        <v>14.46</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.2205</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0.15329999999999999</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0.61450000000000005</v>
-      </c>
-      <c r="H19" s="4">
-        <v>8.2000000000000007E-3</v>
-      </c>
-      <c r="I19" s="4">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>20</v>
-      </c>
-      <c r="B20" s="3">
-        <v>14.9</v>
       </c>
       <c r="C20" s="3">
         <v>532.4</v>
       </c>
       <c r="D20" s="3">
-        <v>21.38</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0.2215</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0.15340000000000001</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0.61599999999999999</v>
+        <v>14.46</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.625</v>
       </c>
       <c r="H20" s="4">
-        <v>6.3E-3</v>
+        <v>0.2205</v>
       </c>
       <c r="I20" s="4">
-        <v>2.8E-3</v>
+        <v>0.15329999999999999</v>
       </c>
       <c r="J20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.61450000000000005</v>
+      </c>
+      <c r="K20" s="4">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="L20" s="4">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3">
-        <v>30.5</v>
+        <v>14.9</v>
       </c>
       <c r="C21" s="3">
         <v>532.4</v>
       </c>
       <c r="D21" s="3">
-        <v>11.39</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0.21129999999999999</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0.15679999999999999</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0.59699999999999998</v>
+        <v>21.38</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.625</v>
       </c>
       <c r="H21" s="4">
-        <v>2.8899999999999999E-2</v>
+        <v>0.2215</v>
       </c>
       <c r="I21" s="4">
-        <v>5.8999999999999999E-3</v>
+        <v>0.15340000000000001</v>
       </c>
       <c r="J21" s="4">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="K21" s="4">
+        <v>6.3E-3</v>
+      </c>
+      <c r="L21" s="4">
+        <v>2.8E-3</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
       <c r="C22" s="3">
         <v>532.4</v>
       </c>
       <c r="D22" s="3">
-        <v>20.11</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0.2167</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0.1545</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0.60470000000000002</v>
+        <v>11.39</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.625</v>
       </c>
       <c r="H22" s="4">
-        <v>1.89E-2</v>
+        <v>0.21129999999999999</v>
       </c>
       <c r="I22" s="4">
-        <v>5.1999999999999998E-3</v>
+        <v>0.15679999999999999</v>
       </c>
       <c r="J22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="K22" s="4">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="L22" s="4">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="M22" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="N22" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3">
-        <v>49.8</v>
+        <v>30.3</v>
       </c>
       <c r="C23" s="3">
         <v>532.4</v>
       </c>
       <c r="D23" s="3">
-        <v>14.48</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0.2024</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0.16070000000000001</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0.58299999999999996</v>
+        <v>20.11</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.625</v>
       </c>
       <c r="H23" s="4">
-        <v>4.65E-2</v>
+        <v>0.2167</v>
       </c>
       <c r="I23" s="4">
-        <v>7.1999999999999998E-3</v>
+        <v>0.1545</v>
       </c>
       <c r="J23" s="4">
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.60470000000000002</v>
+      </c>
+      <c r="K23" s="4">
+        <v>1.89E-2</v>
+      </c>
+      <c r="L23" s="4">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3">
-        <v>49.5</v>
+        <v>49.8</v>
       </c>
       <c r="C24" s="3">
         <v>532.4</v>
       </c>
       <c r="D24" s="3">
+        <v>14.48</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.2024</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.16070000000000001</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="K24" s="4">
+        <v>4.65E-2</v>
+      </c>
+      <c r="L24" s="4">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="M24" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="N24" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>49.5</v>
+      </c>
+      <c r="C25" s="3">
+        <v>532.4</v>
+      </c>
+      <c r="D25" s="3">
         <v>19.989999999999998</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E25" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="H25" s="4">
         <v>0.20810000000000001</v>
       </c>
-      <c r="F24" s="4">
+      <c r="I25" s="4">
         <v>0.15859999999999999</v>
       </c>
-      <c r="G24" s="4">
+      <c r="J25" s="4">
         <v>0.58899999999999997</v>
       </c>
-      <c r="H24" s="4">
+      <c r="K25" s="4">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="I24" s="4">
+      <c r="L25" s="4">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="J24" s="4">
+      <c r="M25" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="N25" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B26" s="3">
         <v>14.9</v>
-      </c>
-      <c r="C25" s="3">
-        <v>547.79999999999995</v>
-      </c>
-      <c r="D25" s="3">
-        <v>14.31</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0.22270000000000001</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0.15229999999999999</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0.61329999999999996</v>
-      </c>
-      <c r="H25" s="4">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="I25" s="4">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="J25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>26</v>
-      </c>
-      <c r="B26" s="3">
-        <v>15.1</v>
       </c>
       <c r="C26" s="3">
         <v>547.79999999999995</v>
       </c>
       <c r="D26" s="3">
-        <v>28.13</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0.22220000000000001</v>
-      </c>
-      <c r="F26" s="4">
+        <v>14.31</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.22270000000000001</v>
+      </c>
+      <c r="I26" s="4">
         <v>0.15229999999999999</v>
       </c>
-      <c r="G26" s="4">
-        <v>0.6169</v>
-      </c>
-      <c r="H26" s="4">
-        <v>5.1000000000000004E-3</v>
-      </c>
-      <c r="I26" s="4">
-        <v>3.5000000000000001E-3</v>
-      </c>
       <c r="J26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.61329999999999996</v>
+      </c>
+      <c r="K26" s="4">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="L26" s="4">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3">
-        <v>30.1</v>
+        <v>15.1</v>
       </c>
       <c r="C27" s="3">
         <v>547.79999999999995</v>
       </c>
       <c r="D27" s="3">
-        <v>11.43</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0.2147</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0.15590000000000001</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0.5978</v>
+        <v>28.13</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.625</v>
       </c>
       <c r="H27" s="4">
-        <v>2.5399999999999999E-2</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="I27" s="4">
-        <v>6.1000000000000004E-3</v>
+        <v>0.15229999999999999</v>
       </c>
       <c r="J27" s="4">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.6169</v>
+      </c>
+      <c r="K27" s="4">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="L27" s="4">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="P27" s="8"/>
+    </row>
+    <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>28</v>
-      </c>
-      <c r="B28" s="2">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <v>30.1</v>
       </c>
       <c r="C28" s="3">
         <v>547.79999999999995</v>
       </c>
-      <c r="D28" s="5">
-        <v>20.3</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0.21879999999999999</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0.1547</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0.60289999999999999</v>
+      <c r="D28" s="3">
+        <v>11.43</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.625</v>
       </c>
       <c r="H28" s="4">
-        <v>1.7999999999999999E-2</v>
+        <v>0.2147</v>
       </c>
       <c r="I28" s="4">
-        <v>5.5999999999999999E-3</v>
+        <v>0.15590000000000001</v>
       </c>
       <c r="J28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.5978</v>
+      </c>
+      <c r="K28" s="4">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="L28" s="4">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="M28" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="N28" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="P28" s="8"/>
+    </row>
+    <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>29</v>
-      </c>
-      <c r="B29" s="3">
-        <v>49.9</v>
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>30</v>
       </c>
       <c r="C29" s="3">
         <v>547.79999999999995</v>
       </c>
-      <c r="D29" s="3">
-        <v>14.45</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0.2039</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0.1605</v>
-      </c>
-      <c r="G29" s="4">
-        <v>0.58250000000000002</v>
+      <c r="D29" s="5">
+        <v>20.3</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.625</v>
       </c>
       <c r="H29" s="4">
-        <v>4.5100000000000001E-2</v>
+        <v>0.21879999999999999</v>
       </c>
       <c r="I29" s="4">
-        <v>7.7999999999999996E-3</v>
+        <v>0.1547</v>
       </c>
       <c r="J29" s="4">
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.60289999999999999</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="L29" s="4">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="P29" s="8"/>
+    </row>
+    <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>30</v>
-      </c>
-      <c r="B30" s="2">
-        <v>50</v>
+        <v>29</v>
+      </c>
+      <c r="B30" s="3">
+        <v>49.9</v>
       </c>
       <c r="C30" s="3">
         <v>547.79999999999995</v>
       </c>
       <c r="D30" s="3">
+        <v>14.45</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.2039</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0.1605</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.58250000000000002</v>
+      </c>
+      <c r="K30" s="4">
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="L30" s="4">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="M30" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="N30" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="P30" s="8"/>
+    </row>
+    <row r="31" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>50</v>
+      </c>
+      <c r="C31" s="3">
+        <v>547.79999999999995</v>
+      </c>
+      <c r="D31" s="3">
         <v>27.79</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E31" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="H31" s="4">
         <v>0.21129999999999999</v>
       </c>
-      <c r="F30" s="4">
+      <c r="I31" s="4">
         <v>0.15690000000000001</v>
       </c>
-      <c r="G30" s="4">
+      <c r="J31" s="4">
         <v>0.59370000000000001</v>
       </c>
-      <c r="H30" s="4">
+      <c r="K31" s="4">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="I30" s="4">
+      <c r="L31" s="4">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="J30" s="4">
+      <c r="M31" s="4">
         <v>1E-4</v>
       </c>
+      <c r="N31" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="P31" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="1.25" right="1.25" top="1" bottom="0.79166666666666696" header="0.25" footer="0.25"/>

--- a/cantera_simulations/Graaf_data/Feed_3.xlsx
+++ b/cantera_simulations/Graaf_data/Feed_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blais.ch/_01_code/05_Project_repos_Github/meOH_repos/meOH-analysis/cantera_simulations/Graaf_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418E5C5F-A815-1740-84A0-3641FC281B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56910F6-FDFB-344F-BA9C-9604C53CE821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>run</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>wcat (g)</t>
+  </si>
+  <si>
+    <t>CO2/(CO+CO2)</t>
   </si>
 </sst>
 </file>
@@ -466,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -478,11 +481,11 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="9" width="16.1640625" customWidth="1"/>
-    <col min="10" max="10" width="14.5" customWidth="1"/>
+    <col min="5" max="10" width="16.1640625" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -505,28 +508,31 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -548,30 +554,34 @@
       <c r="G2" s="6">
         <v>0.625</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="6">
+        <f>F2/(E2+F2)</f>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I2" s="4">
         <v>0.22059999999999999</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>0.15359999999999999</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>0.61850000000000005</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="M2" s="4">
+      <c r="N2" s="4">
         <v>0</v>
       </c>
-      <c r="N2" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="P2" s="8"/>
-    </row>
-    <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O2" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -593,30 +603,34 @@
       <c r="G3" s="6">
         <v>0.625</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H31" si="0">F3/(E3+F3)</f>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I3" s="4">
         <v>0.221</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>0.15379999999999999</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>0.62129999999999996</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="M3" s="4">
+      <c r="N3" s="4">
         <v>0</v>
       </c>
-      <c r="N3" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O3" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="Q3" s="8"/>
+    </row>
+    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -638,30 +652,34 @@
       <c r="G4" s="6">
         <v>0.625</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I4" s="4">
         <v>0.2195</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>0.15329999999999999</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>0.61399999999999999</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="M4" s="4">
+      <c r="N4" s="4">
         <v>0</v>
       </c>
-      <c r="N4" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O4" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="Q4" s="8"/>
+    </row>
+    <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -683,30 +701,34 @@
       <c r="G5" s="6">
         <v>0.625</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I5" s="4">
         <v>0.22109999999999999</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>0.15340000000000001</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>0.61909999999999998</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
         <v>1.9E-3</v>
       </c>
-      <c r="M5" s="4">
+      <c r="N5" s="4">
         <v>0</v>
       </c>
-      <c r="N5" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O5" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -728,30 +750,34 @@
       <c r="G6" s="6">
         <v>0.625</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I6" s="4">
         <v>0.21909999999999999</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>0.15279999999999999</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>0.61099999999999999</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>1.26E-2</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="M6" s="4">
+      <c r="N6" s="4">
         <v>0</v>
       </c>
-      <c r="N6" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O6" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="Q6" s="8"/>
+    </row>
+    <row r="7" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -773,30 +799,34 @@
       <c r="G7" s="6">
         <v>0.625</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I7" s="4">
         <v>0.221</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>0.15260000000000001</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>0.61609999999999998</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
         <v>3.3E-3</v>
       </c>
-      <c r="M7" s="4">
+      <c r="N7" s="4">
         <v>0</v>
       </c>
-      <c r="N7" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O7" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="Q7" s="8"/>
+    </row>
+    <row r="8" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -818,30 +848,34 @@
       <c r="G8" s="6">
         <v>0.625</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I8" s="4">
         <v>0.219</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>0.153</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>0.6169</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="M8" s="4">
+      <c r="N8" s="4">
         <v>0</v>
       </c>
-      <c r="N8" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="P8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O8" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="Q8" s="8"/>
+    </row>
+    <row r="9" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -863,30 +897,34 @@
       <c r="G9" s="6">
         <v>0.625</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I9" s="4">
         <v>0.2205</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>0.1527</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>0.62019999999999997</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>2E-3</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <v>0</v>
       </c>
-      <c r="N9" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="P9" s="8"/>
-    </row>
-    <row r="10" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O9" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="Q9" s="8"/>
+    </row>
+    <row r="10" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -908,30 +946,34 @@
       <c r="G10" s="6">
         <v>0.625</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I10" s="4">
         <v>0.21879999999999999</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>0.1545</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>0.6099</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="M10" s="4">
+      <c r="N10" s="4">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O10" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="Q10" s="8"/>
+    </row>
+    <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -953,30 +995,34 @@
       <c r="G11" s="6">
         <v>0.625</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I11" s="4">
         <v>0.2208</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>0.15390000000000001</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>0.61480000000000001</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>7.6E-3</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="M11" s="4">
+      <c r="N11" s="4">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O11" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="Q11" s="8"/>
+    </row>
+    <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -998,30 +1044,34 @@
       <c r="G12" s="6">
         <v>0.625</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I12" s="4">
         <v>0.21440000000000001</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>0.15640000000000001</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>0.59819999999999995</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>2.52E-2</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="M12" s="4">
+      <c r="N12" s="4">
         <v>1E-4</v>
       </c>
-      <c r="N12" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="P12" s="8"/>
-    </row>
-    <row r="13" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O12" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="Q12" s="8"/>
+    </row>
+    <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1043,30 +1093,34 @@
       <c r="G13" s="6">
         <v>0.625</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I13" s="4">
         <v>0.21940000000000001</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>0.154</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>0.60899999999999999</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="4">
         <v>0</v>
       </c>
-      <c r="N13" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O13" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1088,30 +1142,34 @@
       <c r="G14" s="6">
         <v>0.625</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I14" s="4">
         <v>0.21540000000000001</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>0.1517</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>0.61670000000000003</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>1.23E-2</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O14" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="Q14" s="8"/>
+    </row>
+    <row r="15" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1133,30 +1191,34 @@
       <c r="G15" s="6">
         <v>0.625</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="6">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I15" s="4">
         <v>0.21740000000000001</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>0.15090000000000001</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>0.622</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="M15" s="4">
+      <c r="N15" s="4">
         <v>0</v>
       </c>
-      <c r="N15" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O15" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="Q15" s="8"/>
+    </row>
+    <row r="16" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1178,30 +1240,34 @@
       <c r="G16" s="6">
         <v>0.625</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="6">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I16" s="4">
         <v>0.20649999999999999</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>0.15509999999999999</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>0.60199999999999998</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="M16" s="4">
+      <c r="N16" s="4">
         <v>1E-4</v>
       </c>
-      <c r="N16" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O16" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="Q16" s="8"/>
+    </row>
+    <row r="17" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1223,30 +1289,34 @@
       <c r="G17" s="6">
         <v>0.625</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="6">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I17" s="4">
         <v>0.21229999999999999</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>0.152</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>0.61240000000000006</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="M17" s="4">
+      <c r="N17" s="4">
         <v>1E-4</v>
       </c>
-      <c r="N17" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O17" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="Q17" s="8"/>
+    </row>
+    <row r="18" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1268,30 +1338,34 @@
       <c r="G18" s="6">
         <v>0.625</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="6">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I18" s="4">
         <v>0.19969999999999999</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>0.1628</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>0.57899999999999996</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>5.11E-2</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="M18" s="4">
+      <c r="N18" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="N18" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O18" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="Q18" s="8"/>
+    </row>
+    <row r="19" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1313,30 +1387,34 @@
       <c r="G19" s="6">
         <v>0.625</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="6">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I19" s="4">
         <v>0.2122</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>0.156</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>0.59860000000000002</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>2.7099999999999999E-2</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="M19" s="4">
+      <c r="N19" s="4">
         <v>1E-4</v>
       </c>
-      <c r="N19" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="P19" s="8"/>
-    </row>
-    <row r="20" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O19" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1358,30 +1436,34 @@
       <c r="G20" s="6">
         <v>0.625</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="6">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I20" s="4">
         <v>0.2205</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>0.15329999999999999</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>0.61450000000000005</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="M20" s="4">
+      <c r="N20" s="4">
         <v>0</v>
       </c>
-      <c r="N20" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O20" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="Q20" s="8"/>
+    </row>
+    <row r="21" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1403,30 +1485,34 @@
       <c r="G21" s="6">
         <v>0.625</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="6">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I21" s="4">
         <v>0.2215</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>0.15340000000000001</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>0.61599999999999999</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>6.3E-3</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
         <v>2.8E-3</v>
       </c>
-      <c r="M21" s="4">
+      <c r="N21" s="4">
         <v>0</v>
       </c>
-      <c r="N21" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="P21" s="8"/>
-    </row>
-    <row r="22" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O21" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1448,30 +1534,34 @@
       <c r="G22" s="6">
         <v>0.625</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="6">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I22" s="4">
         <v>0.21129999999999999</v>
       </c>
-      <c r="I22" s="4">
+      <c r="J22" s="4">
         <v>0.15679999999999999</v>
       </c>
-      <c r="J22" s="4">
+      <c r="K22" s="4">
         <v>0.59699999999999998</v>
       </c>
-      <c r="K22" s="4">
+      <c r="L22" s="4">
         <v>2.8899999999999999E-2</v>
       </c>
-      <c r="L22" s="4">
+      <c r="M22" s="4">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="M22" s="4">
+      <c r="N22" s="4">
         <v>1E-4</v>
       </c>
-      <c r="N22" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="P22" s="8"/>
-    </row>
-    <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O22" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1493,30 +1583,34 @@
       <c r="G23" s="6">
         <v>0.625</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="6">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I23" s="4">
         <v>0.2167</v>
       </c>
-      <c r="I23" s="4">
+      <c r="J23" s="4">
         <v>0.1545</v>
       </c>
-      <c r="J23" s="4">
+      <c r="K23" s="4">
         <v>0.60470000000000002</v>
       </c>
-      <c r="K23" s="4">
+      <c r="L23" s="4">
         <v>1.89E-2</v>
       </c>
-      <c r="L23" s="4">
+      <c r="M23" s="4">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="M23" s="4">
+      <c r="N23" s="4">
         <v>0</v>
       </c>
-      <c r="N23" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="P23" s="8"/>
-    </row>
-    <row r="24" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O23" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="Q23" s="8"/>
+    </row>
+    <row r="24" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1538,30 +1632,34 @@
       <c r="G24" s="6">
         <v>0.625</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="6">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I24" s="4">
         <v>0.2024</v>
       </c>
-      <c r="I24" s="4">
+      <c r="J24" s="4">
         <v>0.16070000000000001</v>
       </c>
-      <c r="J24" s="4">
+      <c r="K24" s="4">
         <v>0.58299999999999996</v>
       </c>
-      <c r="K24" s="4">
+      <c r="L24" s="4">
         <v>4.65E-2</v>
       </c>
-      <c r="L24" s="4">
+      <c r="M24" s="4">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="M24" s="4">
+      <c r="N24" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="N24" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="P24" s="8"/>
-    </row>
-    <row r="25" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O24" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="Q24" s="8"/>
+    </row>
+    <row r="25" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1583,30 +1681,34 @@
       <c r="G25" s="6">
         <v>0.625</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="6">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I25" s="4">
         <v>0.20810000000000001</v>
       </c>
-      <c r="I25" s="4">
+      <c r="J25" s="4">
         <v>0.15859999999999999</v>
       </c>
-      <c r="J25" s="4">
+      <c r="K25" s="4">
         <v>0.58899999999999997</v>
       </c>
-      <c r="K25" s="4">
+      <c r="L25" s="4">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="L25" s="4">
+      <c r="M25" s="4">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="M25" s="4">
+      <c r="N25" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="N25" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="P25" s="8"/>
-    </row>
-    <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O25" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="Q25" s="8"/>
+    </row>
+    <row r="26" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1628,30 +1730,34 @@
       <c r="G26" s="6">
         <v>0.625</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="6">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I26" s="4">
         <v>0.22270000000000001</v>
       </c>
-      <c r="I26" s="4">
+      <c r="J26" s="4">
         <v>0.15229999999999999</v>
       </c>
-      <c r="J26" s="4">
+      <c r="K26" s="4">
         <v>0.61329999999999996</v>
       </c>
-      <c r="K26" s="4">
+      <c r="L26" s="4">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="L26" s="4">
+      <c r="M26" s="4">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="M26" s="4">
+      <c r="N26" s="4">
         <v>0</v>
       </c>
-      <c r="N26" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="P26" s="8"/>
-    </row>
-    <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O26" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="Q26" s="8"/>
+    </row>
+    <row r="27" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1673,30 +1779,34 @@
       <c r="G27" s="6">
         <v>0.625</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I27" s="4">
         <v>0.22220000000000001</v>
       </c>
-      <c r="I27" s="4">
+      <c r="J27" s="4">
         <v>0.15229999999999999</v>
       </c>
-      <c r="J27" s="4">
+      <c r="K27" s="4">
         <v>0.6169</v>
       </c>
-      <c r="K27" s="4">
+      <c r="L27" s="4">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="L27" s="4">
+      <c r="M27" s="4">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="M27" s="4">
+      <c r="N27" s="4">
         <v>0</v>
       </c>
-      <c r="N27" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="P27" s="8"/>
-    </row>
-    <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O27" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="Q27" s="8"/>
+    </row>
+    <row r="28" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1718,30 +1828,34 @@
       <c r="G28" s="6">
         <v>0.625</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="6">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I28" s="4">
         <v>0.2147</v>
       </c>
-      <c r="I28" s="4">
+      <c r="J28" s="4">
         <v>0.15590000000000001</v>
       </c>
-      <c r="J28" s="4">
+      <c r="K28" s="4">
         <v>0.5978</v>
       </c>
-      <c r="K28" s="4">
+      <c r="L28" s="4">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="L28" s="4">
+      <c r="M28" s="4">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="M28" s="4">
+      <c r="N28" s="4">
         <v>1E-4</v>
       </c>
-      <c r="N28" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="P28" s="8"/>
-    </row>
-    <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O28" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="Q28" s="8"/>
+    </row>
+    <row r="29" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1763,30 +1877,34 @@
       <c r="G29" s="6">
         <v>0.625</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="6">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I29" s="4">
         <v>0.21879999999999999</v>
       </c>
-      <c r="I29" s="4">
+      <c r="J29" s="4">
         <v>0.1547</v>
       </c>
-      <c r="J29" s="4">
+      <c r="K29" s="4">
         <v>0.60289999999999999</v>
       </c>
-      <c r="K29" s="4">
+      <c r="L29" s="4">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="L29" s="4">
+      <c r="M29" s="4">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="M29" s="4">
+      <c r="N29" s="4">
         <v>0</v>
       </c>
-      <c r="N29" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="P29" s="8"/>
-    </row>
-    <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O29" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="Q29" s="8"/>
+    </row>
+    <row r="30" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1808,30 +1926,34 @@
       <c r="G30" s="6">
         <v>0.625</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="6">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I30" s="4">
         <v>0.2039</v>
       </c>
-      <c r="I30" s="4">
+      <c r="J30" s="4">
         <v>0.1605</v>
       </c>
-      <c r="J30" s="4">
+      <c r="K30" s="4">
         <v>0.58250000000000002</v>
       </c>
-      <c r="K30" s="4">
+      <c r="L30" s="4">
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="L30" s="4">
+      <c r="M30" s="4">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="M30" s="4">
+      <c r="N30" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="N30" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="P30" s="8"/>
-    </row>
-    <row r="31" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O30" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="Q30" s="8"/>
+    </row>
+    <row r="31" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1853,28 +1975,32 @@
       <c r="G31" s="6">
         <v>0.625</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="6">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I31" s="4">
         <v>0.21129999999999999</v>
       </c>
-      <c r="I31" s="4">
+      <c r="J31" s="4">
         <v>0.15690000000000001</v>
       </c>
-      <c r="J31" s="4">
+      <c r="K31" s="4">
         <v>0.59370000000000001</v>
       </c>
-      <c r="K31" s="4">
+      <c r="L31" s="4">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="L31" s="4">
+      <c r="M31" s="4">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="M31" s="4">
+      <c r="N31" s="4">
         <v>1E-4</v>
       </c>
-      <c r="N31" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="P31" s="8"/>
+      <c r="O31" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="Q31" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="1.25" right="1.25" top="1" bottom="0.79166666666666696" header="0.25" footer="0.25"/>

--- a/cantera_simulations/Graaf_data/Feed_3.xlsx
+++ b/cantera_simulations/Graaf_data/Feed_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blais.ch/_01_code/05_Project_repos_Github/meOH_repos/meOH-analysis/cantera_simulations/Graaf_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56910F6-FDFB-344F-BA9C-9604C53CE821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC439E23-0918-824F-A7EF-F2851E10C5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,11 +80,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="00.0"/>
-    <numFmt numFmtId="165" formatCode="0."/>
+  <numFmts count="1">
     <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="00.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -133,28 +130,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,7 +458,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A2" sqref="A2:O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -486,57 +472,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>15</v>
       </c>
       <c r="C2" s="3">
@@ -545,44 +531,44 @@
       <c r="D2" s="3">
         <v>5.44</v>
       </c>
-      <c r="E2" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0.155</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="E2" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H2" s="4">
         <f>F2/(E2+F2)</f>
         <v>0.41333333333333333</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>0.22059999999999999</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>0.15359999999999999</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>0.61850000000000005</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="3">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="3">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="3">
         <v>0</v>
       </c>
-      <c r="O2" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="Q2" s="8"/>
+      <c r="O2" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3">
@@ -594,44 +580,44 @@
       <c r="D3" s="3">
         <v>12.42</v>
       </c>
-      <c r="E3" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0.155</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="E3" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H3" s="4">
         <f t="shared" ref="H3:H31" si="0">F3/(E3+F3)</f>
         <v>0.41333333333333333</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>0.221</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>0.15379999999999999</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>0.62129999999999996</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <v>0</v>
       </c>
-      <c r="O3" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="Q3" s="8"/>
+      <c r="O3" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3">
@@ -643,44 +629,44 @@
       <c r="D4" s="3">
         <v>5.48</v>
       </c>
-      <c r="E4" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0.155</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="H4" s="6">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I4" s="4">
+      <c r="E4" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I4" s="3">
         <v>0.2195</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>0.15329999999999999</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>0.61399999999999999</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <v>0</v>
       </c>
-      <c r="O4" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="Q4" s="8"/>
+      <c r="O4" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3">
@@ -692,44 +678,44 @@
       <c r="D5" s="3">
         <v>13.67</v>
       </c>
-      <c r="E5" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0.155</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="H5" s="6">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="E5" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I5" s="3">
         <v>0.22109999999999999</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>0.15340000000000001</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>0.61909999999999998</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <v>1.9E-3</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <v>0</v>
       </c>
-      <c r="O5" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="Q5" s="8"/>
+      <c r="O5" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3">
@@ -741,44 +727,44 @@
       <c r="D6" s="3">
         <v>7.09</v>
       </c>
-      <c r="E6" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.155</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="H6" s="6">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="E6" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I6" s="3">
         <v>0.21909999999999999</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>0.15279999999999999</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>0.61099999999999999</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>1.26E-2</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <v>0</v>
       </c>
-      <c r="O6" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="Q6" s="8"/>
+      <c r="O6" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3">
@@ -790,47 +776,47 @@
       <c r="D7" s="3">
         <v>13.62</v>
       </c>
-      <c r="E7" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0.155</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="H7" s="6">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="E7" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I7" s="3">
         <v>0.221</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>0.15260000000000001</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>0.61609999999999998</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <v>3.3E-3</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>0</v>
       </c>
-      <c r="O7" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="Q7" s="8"/>
+      <c r="O7" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>15</v>
       </c>
       <c r="C8" s="3">
@@ -839,47 +825,47 @@
       <c r="D8" s="3">
         <v>6.76</v>
       </c>
-      <c r="E8" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.155</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="E8" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I8" s="3">
         <v>0.219</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>0.153</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <v>0.6169</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="Q8" s="8"/>
+      <c r="O8" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>15</v>
       </c>
       <c r="C9" s="3">
@@ -888,44 +874,44 @@
       <c r="D9" s="3">
         <v>12.72</v>
       </c>
-      <c r="E9" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0.155</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="H9" s="6">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="E9" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I9" s="3">
         <v>0.2205</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>0.1527</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>0.62019999999999997</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>2E-3</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="Q9" s="8"/>
+      <c r="O9" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3">
@@ -937,44 +923,44 @@
       <c r="D10" s="3">
         <v>9.3699999999999992</v>
       </c>
-      <c r="E10" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0.155</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="H10" s="6">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="E10" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I10" s="3">
         <v>0.21879999999999999</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>0.1545</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>0.6099</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>0</v>
       </c>
-      <c r="O10" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="Q10" s="8"/>
+      <c r="O10" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3">
@@ -986,44 +972,44 @@
       <c r="D11" s="3">
         <v>16.649999999999999</v>
       </c>
-      <c r="E11" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.155</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="H11" s="6">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I11" s="4">
+      <c r="E11" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I11" s="3">
         <v>0.2208</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>0.15390000000000001</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>0.61480000000000001</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>7.6E-3</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>0</v>
       </c>
-      <c r="O11" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="Q11" s="8"/>
+      <c r="O11" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3">
@@ -1035,44 +1021,44 @@
       <c r="D12" s="3">
         <v>7.34</v>
       </c>
-      <c r="E12" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0.155</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="H12" s="6">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="E12" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I12" s="3">
         <v>0.21440000000000001</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>0.15640000000000001</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>0.59819999999999995</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>2.52E-2</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>1E-4</v>
       </c>
-      <c r="O12" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="Q12" s="8"/>
+      <c r="O12" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3">
@@ -1084,44 +1070,44 @@
       <c r="D13" s="3">
         <v>16.649999999999999</v>
       </c>
-      <c r="E13" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0.155</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="H13" s="6">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="E13" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I13" s="3">
         <v>0.21940000000000001</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>0.154</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>0.60899999999999999</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="Q13" s="8"/>
+      <c r="O13" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3">
@@ -1133,44 +1119,44 @@
       <c r="D14" s="3">
         <v>7.58</v>
       </c>
-      <c r="E14" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0.155</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="H14" s="6">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="E14" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I14" s="3">
         <v>0.21540000000000001</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>0.1517</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>0.61670000000000003</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="3">
         <v>1.23E-2</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="3">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="Q14" s="8"/>
+      <c r="O14" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3">
@@ -1182,44 +1168,44 @@
       <c r="D15" s="3">
         <v>15.61</v>
       </c>
-      <c r="E15" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0.155</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="H15" s="6">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="E15" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I15" s="3">
         <v>0.21740000000000001</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>0.15090000000000001</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>0.622</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="3">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="Q15" s="8"/>
+      <c r="O15" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3">
@@ -1231,44 +1217,44 @@
       <c r="D16" s="3">
         <v>6.57</v>
       </c>
-      <c r="E16" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0.155</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="H16" s="6">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="E16" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I16" s="3">
         <v>0.20649999999999999</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>0.15509999999999999</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>0.60199999999999998</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="3">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="3">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="3">
         <v>1E-4</v>
       </c>
-      <c r="O16" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="Q16" s="8"/>
+      <c r="O16" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3">
@@ -1280,47 +1266,47 @@
       <c r="D17" s="3">
         <v>13.31</v>
       </c>
-      <c r="E17" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0.155</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="H17" s="6">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="E17" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I17" s="3">
         <v>0.21229999999999999</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>0.152</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>0.61240000000000006</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="3">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="3">
         <v>1E-4</v>
       </c>
-      <c r="O17" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="Q17" s="8"/>
+      <c r="O17" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>50</v>
       </c>
       <c r="C18" s="3">
@@ -1329,44 +1315,44 @@
       <c r="D18" s="3">
         <v>6.88</v>
       </c>
-      <c r="E18" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0.155</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="H18" s="6">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I18" s="4">
+      <c r="E18" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I18" s="3">
         <v>0.19969999999999999</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>0.1628</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>0.57899999999999996</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <v>5.11E-2</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="3">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="O18" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="Q18" s="8"/>
+      <c r="O18" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3">
@@ -1378,47 +1364,47 @@
       <c r="D19" s="3">
         <v>16.21</v>
       </c>
-      <c r="E19" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0.155</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="H19" s="6">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I19" s="4">
+      <c r="E19" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I19" s="3">
         <v>0.2122</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <v>0.156</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <v>0.59860000000000002</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="3">
         <v>2.7099999999999999E-2</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="3">
         <v>1E-4</v>
       </c>
-      <c r="O19" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="Q19" s="8"/>
+      <c r="O19" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>15</v>
       </c>
       <c r="C20" s="3">
@@ -1427,44 +1413,44 @@
       <c r="D20" s="3">
         <v>14.46</v>
       </c>
-      <c r="E20" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0.155</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="H20" s="6">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I20" s="4">
+      <c r="E20" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I20" s="3">
         <v>0.2205</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <v>0.15329999999999999</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <v>0.61450000000000005</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="3">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="3">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="Q20" s="8"/>
+      <c r="O20" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3">
@@ -1476,44 +1462,44 @@
       <c r="D21" s="3">
         <v>21.38</v>
       </c>
-      <c r="E21" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="F21" s="6">
-        <v>0.155</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="H21" s="6">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I21" s="4">
+      <c r="E21" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I21" s="3">
         <v>0.2215</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>0.15340000000000001</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <v>0.61599999999999999</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="3">
         <v>6.3E-3</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="3">
         <v>2.8E-3</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="3">
         <v>0</v>
       </c>
-      <c r="O21" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="Q21" s="8"/>
+      <c r="O21" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3">
@@ -1525,44 +1511,44 @@
       <c r="D22" s="3">
         <v>11.39</v>
       </c>
-      <c r="E22" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="F22" s="6">
-        <v>0.155</v>
-      </c>
-      <c r="G22" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="H22" s="6">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I22" s="4">
+      <c r="E22" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I22" s="3">
         <v>0.21129999999999999</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <v>0.15679999999999999</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <v>0.59699999999999998</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="3">
         <v>2.8899999999999999E-2</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="3">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="3">
         <v>1E-4</v>
       </c>
-      <c r="O22" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="Q22" s="8"/>
+      <c r="O22" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3">
@@ -1574,44 +1560,44 @@
       <c r="D23" s="3">
         <v>20.11</v>
       </c>
-      <c r="E23" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="F23" s="6">
-        <v>0.155</v>
-      </c>
-      <c r="G23" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="H23" s="6">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I23" s="4">
+      <c r="E23" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I23" s="3">
         <v>0.2167</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <v>0.1545</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <v>0.60470000000000002</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="3">
         <v>1.89E-2</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="3">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="3">
         <v>0</v>
       </c>
-      <c r="O23" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="Q23" s="8"/>
+      <c r="O23" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="3">
@@ -1623,44 +1609,44 @@
       <c r="D24" s="3">
         <v>14.48</v>
       </c>
-      <c r="E24" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="F24" s="6">
-        <v>0.155</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="H24" s="6">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I24" s="4">
+      <c r="E24" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I24" s="3">
         <v>0.2024</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="3">
         <v>0.16070000000000001</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <v>0.58299999999999996</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="3">
         <v>4.65E-2</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="3">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="O24" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="Q24" s="8"/>
+      <c r="O24" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3">
@@ -1672,44 +1658,44 @@
       <c r="D25" s="3">
         <v>19.989999999999998</v>
       </c>
-      <c r="E25" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="F25" s="6">
-        <v>0.155</v>
-      </c>
-      <c r="G25" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="H25" s="6">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I25" s="4">
+      <c r="E25" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I25" s="3">
         <v>0.20810000000000001</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="3">
         <v>0.15859999999999999</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <v>0.58899999999999997</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="3">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="3">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="O25" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="Q25" s="8"/>
+      <c r="O25" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3">
@@ -1721,44 +1707,44 @@
       <c r="D26" s="3">
         <v>14.31</v>
       </c>
-      <c r="E26" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="F26" s="6">
-        <v>0.155</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="H26" s="6">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I26" s="4">
+      <c r="E26" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I26" s="3">
         <v>0.22270000000000001</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="3">
         <v>0.15229999999999999</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="3">
         <v>0.61329999999999996</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="3">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="3">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="3">
         <v>0</v>
       </c>
-      <c r="O26" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="Q26" s="8"/>
+      <c r="O26" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3">
@@ -1770,44 +1756,44 @@
       <c r="D27" s="3">
         <v>28.13</v>
       </c>
-      <c r="E27" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="F27" s="6">
-        <v>0.155</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="H27" s="6">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I27" s="4">
+      <c r="E27" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I27" s="3">
         <v>0.22220000000000001</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="3">
         <v>0.15229999999999999</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="3">
         <v>0.6169</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="3">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="3">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="3">
         <v>0</v>
       </c>
-      <c r="O27" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="Q27" s="8"/>
+      <c r="O27" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="3">
@@ -1819,93 +1805,93 @@
       <c r="D28" s="3">
         <v>11.43</v>
       </c>
-      <c r="E28" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="F28" s="6">
-        <v>0.155</v>
-      </c>
-      <c r="G28" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="H28" s="6">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I28" s="4">
+      <c r="E28" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I28" s="3">
         <v>0.2147</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="3">
         <v>0.15590000000000001</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="3">
         <v>0.5978</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="3">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="3">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="3">
         <v>1E-4</v>
       </c>
-      <c r="O28" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="Q28" s="8"/>
+      <c r="O28" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="3">
         <v>30</v>
       </c>
       <c r="C29" s="3">
         <v>547.79999999999995</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="3">
         <v>20.3</v>
       </c>
-      <c r="E29" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="F29" s="6">
-        <v>0.155</v>
-      </c>
-      <c r="G29" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="H29" s="6">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I29" s="4">
+      <c r="E29" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I29" s="3">
         <v>0.21879999999999999</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="3">
         <v>0.1547</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <v>0.60289999999999999</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="3">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="Q29" s="8"/>
+      <c r="O29" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="3">
@@ -1917,47 +1903,47 @@
       <c r="D30" s="3">
         <v>14.45</v>
       </c>
-      <c r="E30" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="F30" s="6">
-        <v>0.155</v>
-      </c>
-      <c r="G30" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="H30" s="6">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I30" s="4">
+      <c r="E30" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I30" s="3">
         <v>0.2039</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="3">
         <v>0.1605</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="3">
         <v>0.58250000000000002</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="3">
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M30" s="3">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="O30" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="Q30" s="8"/>
+      <c r="O30" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="3">
         <v>50</v>
       </c>
       <c r="C31" s="3">
@@ -1966,41 +1952,41 @@
       <c r="D31" s="3">
         <v>27.79</v>
       </c>
-      <c r="E31" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="F31" s="6">
-        <v>0.155</v>
-      </c>
-      <c r="G31" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="H31" s="6">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I31" s="4">
+      <c r="E31" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="I31" s="3">
         <v>0.21129999999999999</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="3">
         <v>0.15690000000000001</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="3">
         <v>0.59370000000000001</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="3">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M31" s="3">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="3">
         <v>1E-4</v>
       </c>
-      <c r="O31" s="7">
-        <v>4.24</v>
-      </c>
-      <c r="Q31" s="8"/>
+      <c r="O31" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="Q31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="1.25" right="1.25" top="1" bottom="0.79166666666666696" header="0.25" footer="0.25"/>

--- a/cantera_simulations/Graaf_data/Feed_3.xlsx
+++ b/cantera_simulations/Graaf_data/Feed_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blais.ch/_01_code/05_Project_repos_Github/meOH_repos/meOH-analysis/cantera_simulations/Graaf_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC439E23-0918-824F-A7EF-F2851E10C5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04B6854-C0CF-9342-B5B7-A2A29458AC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>run</t>
   </si>
@@ -75,13 +75,16 @@
   <si>
     <t>CO2/(CO+CO2)</t>
   </si>
+  <si>
+    <t>feed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -93,6 +96,7 @@
     <font>
       <sz val="11.5"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,10 +134,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -141,6 +145,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,1538 +460,1631 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O31"/>
+      <selection activeCell="A2" sqref="A2:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="10" width="16.1640625" customWidth="1"/>
-    <col min="11" max="11" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="11" width="16.1640625" customWidth="1"/>
+    <col min="12" max="12" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C2" s="3">
         <v>15</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <v>483.5</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>5.44</v>
       </c>
-      <c r="E2" s="4">
-        <v>0.22</v>
-      </c>
       <c r="F2" s="4">
-        <v>0.155</v>
+        <v>0.22</v>
       </c>
       <c r="G2" s="4">
-        <v>0.625</v>
+        <v>0.155</v>
       </c>
       <c r="H2" s="4">
-        <f>F2/(E2+F2)</f>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I2" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I2" s="4">
+        <f>G2/(F2+G2)</f>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J2" s="3">
         <v>0.22059999999999999</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>0.15359999999999999</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>0.61850000000000005</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="3">
         <v>0</v>
       </c>
-      <c r="O2" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="P2" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C3" s="3">
         <v>15.2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>483.5</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>12.42</v>
       </c>
-      <c r="E3" s="4">
-        <v>0.22</v>
-      </c>
       <c r="F3" s="4">
-        <v>0.155</v>
+        <v>0.22</v>
       </c>
       <c r="G3" s="4">
-        <v>0.625</v>
+        <v>0.155</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" ref="H3:H31" si="0">F3/(E3+F3)</f>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I3" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" ref="I3:I31" si="0">G3/(F3+G3)</f>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J3" s="3">
         <v>0.221</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>0.15379999999999999</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>0.62129999999999996</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="N3" s="3">
+      <c r="O3" s="3">
         <v>0</v>
       </c>
-      <c r="O3" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="P3" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
         <v>29.7</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="3">
         <v>483.5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>5.48</v>
       </c>
-      <c r="E4" s="4">
-        <v>0.22</v>
-      </c>
       <c r="F4" s="4">
-        <v>0.155</v>
+        <v>0.22</v>
       </c>
       <c r="G4" s="4">
-        <v>0.625</v>
+        <v>0.155</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I4" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J4" s="3">
         <v>0.2195</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>0.15329999999999999</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>0.61399999999999999</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="3">
         <v>0</v>
       </c>
-      <c r="O4" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="P4" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="C5" s="3">
         <v>29.5</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>483.5</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>13.67</v>
       </c>
-      <c r="E5" s="4">
-        <v>0.22</v>
-      </c>
       <c r="F5" s="4">
-        <v>0.155</v>
+        <v>0.22</v>
       </c>
       <c r="G5" s="4">
-        <v>0.625</v>
+        <v>0.155</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I5" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J5" s="3">
         <v>0.22109999999999999</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>0.15340000000000001</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <v>0.61909999999999998</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <v>1.9E-3</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>0</v>
       </c>
-      <c r="O5" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="P5" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="C6" s="3">
         <v>49.8</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="3">
         <v>483.5</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>7.09</v>
       </c>
-      <c r="E6" s="4">
-        <v>0.22</v>
-      </c>
       <c r="F6" s="4">
-        <v>0.155</v>
+        <v>0.22</v>
       </c>
       <c r="G6" s="4">
-        <v>0.625</v>
+        <v>0.155</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I6" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J6" s="3">
         <v>0.21909999999999999</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>0.15279999999999999</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <v>0.61099999999999999</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <v>1.26E-2</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="N6" s="3">
+      <c r="O6" s="3">
         <v>0</v>
       </c>
-      <c r="O6" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="P6" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="C7" s="3">
         <v>49.2</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <v>483.5</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>13.62</v>
       </c>
-      <c r="E7" s="4">
-        <v>0.22</v>
-      </c>
       <c r="F7" s="4">
-        <v>0.155</v>
+        <v>0.22</v>
       </c>
       <c r="G7" s="4">
-        <v>0.625</v>
+        <v>0.155</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I7" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J7" s="3">
         <v>0.221</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>0.15260000000000001</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
         <v>0.61609999999999998</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
         <v>3.3E-3</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>0</v>
       </c>
-      <c r="O7" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="P7" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="C8" s="3">
         <v>15</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="3">
         <v>499.3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>6.76</v>
       </c>
-      <c r="E8" s="4">
-        <v>0.22</v>
-      </c>
       <c r="F8" s="4">
-        <v>0.155</v>
+        <v>0.22</v>
       </c>
       <c r="G8" s="4">
-        <v>0.625</v>
+        <v>0.155</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I8" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J8" s="3">
         <v>0.219</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>0.153</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>0.6169</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="P8" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="C9" s="3">
         <v>15</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <v>499.3</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>12.72</v>
       </c>
-      <c r="E9" s="4">
-        <v>0.22</v>
-      </c>
       <c r="F9" s="4">
-        <v>0.155</v>
+        <v>0.22</v>
       </c>
       <c r="G9" s="4">
-        <v>0.625</v>
+        <v>0.155</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I9" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J9" s="3">
         <v>0.2205</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>0.1527</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>0.62019999999999997</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2E-3</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="P9" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="C10" s="3">
         <v>29.5</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D10" s="3">
         <v>499.3</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>9.3699999999999992</v>
       </c>
-      <c r="E10" s="4">
-        <v>0.22</v>
-      </c>
       <c r="F10" s="4">
-        <v>0.155</v>
+        <v>0.22</v>
       </c>
       <c r="G10" s="4">
-        <v>0.625</v>
+        <v>0.155</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I10" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J10" s="3">
         <v>0.21879999999999999</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>0.1545</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>0.6099</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>0</v>
       </c>
-      <c r="O10" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="P10" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="C11" s="3">
         <v>29.9</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="3">
         <v>499.3</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>16.649999999999999</v>
       </c>
-      <c r="E11" s="4">
-        <v>0.22</v>
-      </c>
       <c r="F11" s="4">
-        <v>0.155</v>
+        <v>0.22</v>
       </c>
       <c r="G11" s="4">
-        <v>0.625</v>
+        <v>0.155</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I11" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J11" s="3">
         <v>0.2208</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <v>0.15390000000000001</v>
       </c>
-      <c r="K11" s="3">
+      <c r="L11" s="3">
         <v>0.61480000000000001</v>
       </c>
-      <c r="L11" s="3">
+      <c r="M11" s="3">
         <v>7.6E-3</v>
       </c>
-      <c r="M11" s="3">
+      <c r="N11" s="3">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="N11" s="3">
+      <c r="O11" s="3">
         <v>0</v>
       </c>
-      <c r="O11" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="P11" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="C12" s="3">
         <v>49.9</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="3">
         <v>499.3</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>7.34</v>
       </c>
-      <c r="E12" s="4">
-        <v>0.22</v>
-      </c>
       <c r="F12" s="4">
-        <v>0.155</v>
+        <v>0.22</v>
       </c>
       <c r="G12" s="4">
-        <v>0.625</v>
+        <v>0.155</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I12" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J12" s="3">
         <v>0.21440000000000001</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>0.15640000000000001</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>0.59819999999999995</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2.52E-2</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1E-4</v>
       </c>
-      <c r="O12" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="P12" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="C13" s="3">
         <v>50.5</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="3">
         <v>499.3</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <v>16.649999999999999</v>
       </c>
-      <c r="E13" s="4">
-        <v>0.22</v>
-      </c>
       <c r="F13" s="4">
-        <v>0.155</v>
+        <v>0.22</v>
       </c>
       <c r="G13" s="4">
-        <v>0.625</v>
+        <v>0.155</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I13" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J13" s="3">
         <v>0.21940000000000001</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>0.154</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="3">
         <v>0.60899999999999999</v>
       </c>
-      <c r="L13" s="3">
+      <c r="M13" s="3">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="M13" s="3">
+      <c r="N13" s="3">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="N13" s="3">
+      <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="P13" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="C14" s="3">
         <v>15.2</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D14" s="3">
         <v>516.70000000000005</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="3">
         <v>7.58</v>
       </c>
-      <c r="E14" s="4">
-        <v>0.22</v>
-      </c>
       <c r="F14" s="4">
-        <v>0.155</v>
+        <v>0.22</v>
       </c>
       <c r="G14" s="4">
-        <v>0.625</v>
+        <v>0.155</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I14" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J14" s="3">
         <v>0.21540000000000001</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>0.1517</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>0.61670000000000003</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1.23E-2</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="P14" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="C15" s="3">
         <v>15.2</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D15" s="3">
         <v>516.70000000000005</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E15" s="3">
         <v>15.61</v>
       </c>
-      <c r="E15" s="4">
-        <v>0.22</v>
-      </c>
       <c r="F15" s="4">
-        <v>0.155</v>
+        <v>0.22</v>
       </c>
       <c r="G15" s="4">
-        <v>0.625</v>
+        <v>0.155</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I15" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J15" s="3">
         <v>0.21740000000000001</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>0.15090000000000001</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>0.622</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="Q15" s="2"/>
-    </row>
-    <row r="16" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="P15" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="C16" s="3">
         <v>30.3</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D16" s="3">
         <v>516.70000000000005</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="3">
         <v>6.57</v>
       </c>
-      <c r="E16" s="4">
-        <v>0.22</v>
-      </c>
       <c r="F16" s="4">
-        <v>0.155</v>
+        <v>0.22</v>
       </c>
       <c r="G16" s="4">
-        <v>0.625</v>
+        <v>0.155</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I16" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J16" s="3">
         <v>0.20649999999999999</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K16" s="3">
         <v>0.15509999999999999</v>
       </c>
-      <c r="K16" s="3">
+      <c r="L16" s="3">
         <v>0.60199999999999998</v>
       </c>
-      <c r="L16" s="3">
+      <c r="M16" s="3">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="M16" s="3">
+      <c r="N16" s="3">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="N16" s="3">
+      <c r="O16" s="3">
         <v>1E-4</v>
       </c>
-      <c r="O16" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="P16" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="C17" s="3">
         <v>30.1</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
         <v>516.70000000000005</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E17" s="3">
         <v>13.31</v>
       </c>
-      <c r="E17" s="4">
-        <v>0.22</v>
-      </c>
       <c r="F17" s="4">
-        <v>0.155</v>
+        <v>0.22</v>
       </c>
       <c r="G17" s="4">
-        <v>0.625</v>
+        <v>0.155</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I17" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J17" s="3">
         <v>0.21229999999999999</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>0.152</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>0.61240000000000006</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1E-4</v>
       </c>
-      <c r="O17" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="Q17" s="2"/>
-    </row>
-    <row r="18" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="P17" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="C18" s="3">
         <v>50</v>
       </c>
-      <c r="C18" s="3">
+      <c r="D18" s="3">
         <v>516.70000000000005</v>
       </c>
-      <c r="D18" s="3">
+      <c r="E18" s="3">
         <v>6.88</v>
       </c>
-      <c r="E18" s="4">
-        <v>0.22</v>
-      </c>
       <c r="F18" s="4">
-        <v>0.155</v>
+        <v>0.22</v>
       </c>
       <c r="G18" s="4">
-        <v>0.625</v>
+        <v>0.155</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I18" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J18" s="3">
         <v>0.19969999999999999</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>0.1628</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>0.57899999999999996</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5.11E-2</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="O18" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="Q18" s="2"/>
-    </row>
-    <row r="19" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="P18" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="C19" s="3">
         <v>50.7</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="3">
         <v>516.70000000000005</v>
       </c>
-      <c r="D19" s="3">
+      <c r="E19" s="3">
         <v>16.21</v>
       </c>
-      <c r="E19" s="4">
-        <v>0.22</v>
-      </c>
       <c r="F19" s="4">
-        <v>0.155</v>
+        <v>0.22</v>
       </c>
       <c r="G19" s="4">
-        <v>0.625</v>
+        <v>0.155</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I19" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J19" s="3">
         <v>0.2122</v>
       </c>
-      <c r="J19" s="3">
+      <c r="K19" s="3">
         <v>0.156</v>
       </c>
-      <c r="K19" s="3">
+      <c r="L19" s="3">
         <v>0.59860000000000002</v>
       </c>
-      <c r="L19" s="3">
+      <c r="M19" s="3">
         <v>2.7099999999999999E-2</v>
       </c>
-      <c r="M19" s="3">
+      <c r="N19" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="N19" s="3">
+      <c r="O19" s="3">
         <v>1E-4</v>
       </c>
-      <c r="O19" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="P19" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="C20" s="3">
         <v>15</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D20" s="3">
         <v>532.4</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E20" s="3">
         <v>14.46</v>
       </c>
-      <c r="E20" s="4">
-        <v>0.22</v>
-      </c>
       <c r="F20" s="4">
-        <v>0.155</v>
+        <v>0.22</v>
       </c>
       <c r="G20" s="4">
-        <v>0.625</v>
+        <v>0.155</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I20" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J20" s="3">
         <v>0.2205</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>0.15329999999999999</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>0.61450000000000005</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="P20" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="C21" s="3">
         <v>14.9</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D21" s="3">
         <v>532.4</v>
       </c>
-      <c r="D21" s="3">
+      <c r="E21" s="3">
         <v>21.38</v>
       </c>
-      <c r="E21" s="4">
-        <v>0.22</v>
-      </c>
       <c r="F21" s="4">
-        <v>0.155</v>
+        <v>0.22</v>
       </c>
       <c r="G21" s="4">
-        <v>0.625</v>
+        <v>0.155</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I21" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J21" s="3">
         <v>0.2215</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>0.15340000000000001</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>0.61599999999999999</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6.3E-3</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2.8E-3</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>0</v>
       </c>
-      <c r="O21" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="Q21" s="2"/>
-    </row>
-    <row r="22" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="P21" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
+      <c r="C22" s="3">
         <v>30.5</v>
       </c>
-      <c r="C22" s="3">
+      <c r="D22" s="3">
         <v>532.4</v>
       </c>
-      <c r="D22" s="3">
+      <c r="E22" s="3">
         <v>11.39</v>
       </c>
-      <c r="E22" s="4">
-        <v>0.22</v>
-      </c>
       <c r="F22" s="4">
-        <v>0.155</v>
+        <v>0.22</v>
       </c>
       <c r="G22" s="4">
-        <v>0.625</v>
+        <v>0.155</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I22" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J22" s="3">
         <v>0.21129999999999999</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>0.15679999999999999</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>0.59699999999999998</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2.8899999999999999E-2</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1E-4</v>
       </c>
-      <c r="O22" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="Q22" s="2"/>
-    </row>
-    <row r="23" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="P22" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
+      <c r="C23" s="3">
         <v>30.3</v>
       </c>
-      <c r="C23" s="3">
+      <c r="D23" s="3">
         <v>532.4</v>
       </c>
-      <c r="D23" s="3">
+      <c r="E23" s="3">
         <v>20.11</v>
       </c>
-      <c r="E23" s="4">
-        <v>0.22</v>
-      </c>
       <c r="F23" s="4">
-        <v>0.155</v>
+        <v>0.22</v>
       </c>
       <c r="G23" s="4">
-        <v>0.625</v>
+        <v>0.155</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I23" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J23" s="3">
         <v>0.2167</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>0.1545</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>0.60470000000000002</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1.89E-2</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>0</v>
       </c>
-      <c r="O23" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="Q23" s="2"/>
-    </row>
-    <row r="24" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="P23" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
+      <c r="C24" s="3">
         <v>49.8</v>
       </c>
-      <c r="C24" s="3">
+      <c r="D24" s="3">
         <v>532.4</v>
       </c>
-      <c r="D24" s="3">
+      <c r="E24" s="3">
         <v>14.48</v>
       </c>
-      <c r="E24" s="4">
-        <v>0.22</v>
-      </c>
       <c r="F24" s="4">
-        <v>0.155</v>
+        <v>0.22</v>
       </c>
       <c r="G24" s="4">
-        <v>0.625</v>
+        <v>0.155</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I24" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J24" s="3">
         <v>0.2024</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>0.16070000000000001</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>0.58299999999999996</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4.65E-2</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="O24" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="Q24" s="2"/>
-    </row>
-    <row r="25" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="P24" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
+      <c r="C25" s="3">
         <v>49.5</v>
       </c>
-      <c r="C25" s="3">
+      <c r="D25" s="3">
         <v>532.4</v>
       </c>
-      <c r="D25" s="3">
+      <c r="E25" s="3">
         <v>19.989999999999998</v>
       </c>
-      <c r="E25" s="4">
-        <v>0.22</v>
-      </c>
       <c r="F25" s="4">
-        <v>0.155</v>
+        <v>0.22</v>
       </c>
       <c r="G25" s="4">
-        <v>0.625</v>
+        <v>0.155</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I25" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J25" s="3">
         <v>0.20810000000000001</v>
       </c>
-      <c r="J25" s="3">
+      <c r="K25" s="3">
         <v>0.15859999999999999</v>
       </c>
-      <c r="K25" s="3">
+      <c r="L25" s="3">
         <v>0.58899999999999997</v>
       </c>
-      <c r="L25" s="3">
+      <c r="M25" s="3">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="M25" s="3">
+      <c r="N25" s="3">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="N25" s="3">
+      <c r="O25" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="O25" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="Q25" s="2"/>
-    </row>
-    <row r="26" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="P25" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
+      <c r="C26" s="3">
         <v>14.9</v>
       </c>
-      <c r="C26" s="3">
+      <c r="D26" s="3">
         <v>547.79999999999995</v>
       </c>
-      <c r="D26" s="3">
+      <c r="E26" s="3">
         <v>14.31</v>
       </c>
-      <c r="E26" s="4">
-        <v>0.22</v>
-      </c>
       <c r="F26" s="4">
-        <v>0.155</v>
+        <v>0.22</v>
       </c>
       <c r="G26" s="4">
-        <v>0.625</v>
+        <v>0.155</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I26" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J26" s="3">
         <v>0.22270000000000001</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>0.15229999999999999</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>0.61329999999999996</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>0</v>
       </c>
-      <c r="O26" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="Q26" s="2"/>
-    </row>
-    <row r="27" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="P26" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="3">
+      <c r="C27" s="3">
         <v>15.1</v>
       </c>
-      <c r="C27" s="3">
+      <c r="D27" s="3">
         <v>547.79999999999995</v>
       </c>
-      <c r="D27" s="3">
+      <c r="E27" s="3">
         <v>28.13</v>
       </c>
-      <c r="E27" s="4">
-        <v>0.22</v>
-      </c>
       <c r="F27" s="4">
-        <v>0.155</v>
+        <v>0.22</v>
       </c>
       <c r="G27" s="4">
-        <v>0.625</v>
+        <v>0.155</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I27" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I27" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J27" s="3">
         <v>0.22220000000000001</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>0.15229999999999999</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>0.6169</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>0</v>
       </c>
-      <c r="O27" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="Q27" s="2"/>
-    </row>
-    <row r="28" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="P27" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="R27" s="2"/>
+    </row>
+    <row r="28" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="3">
+      <c r="C28" s="3">
         <v>30.1</v>
       </c>
-      <c r="C28" s="3">
+      <c r="D28" s="3">
         <v>547.79999999999995</v>
       </c>
-      <c r="D28" s="3">
+      <c r="E28" s="3">
         <v>11.43</v>
       </c>
-      <c r="E28" s="4">
-        <v>0.22</v>
-      </c>
       <c r="F28" s="4">
-        <v>0.155</v>
+        <v>0.22</v>
       </c>
       <c r="G28" s="4">
-        <v>0.625</v>
+        <v>0.155</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I28" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J28" s="3">
         <v>0.2147</v>
       </c>
-      <c r="J28" s="3">
+      <c r="K28" s="3">
         <v>0.15590000000000001</v>
       </c>
-      <c r="K28" s="3">
+      <c r="L28" s="3">
         <v>0.5978</v>
       </c>
-      <c r="L28" s="3">
+      <c r="M28" s="3">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="M28" s="3">
+      <c r="N28" s="3">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="N28" s="3">
+      <c r="O28" s="3">
         <v>1E-4</v>
       </c>
-      <c r="O28" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="Q28" s="2"/>
-    </row>
-    <row r="29" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="P28" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="R28" s="2"/>
+    </row>
+    <row r="29" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>3</v>
+      </c>
+      <c r="B29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
+      <c r="C29" s="3">
         <v>30</v>
       </c>
-      <c r="C29" s="3">
+      <c r="D29" s="3">
         <v>547.79999999999995</v>
       </c>
-      <c r="D29" s="3">
+      <c r="E29" s="3">
         <v>20.3</v>
       </c>
-      <c r="E29" s="4">
-        <v>0.22</v>
-      </c>
       <c r="F29" s="4">
-        <v>0.155</v>
+        <v>0.22</v>
       </c>
       <c r="G29" s="4">
-        <v>0.625</v>
+        <v>0.155</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I29" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I29" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J29" s="3">
         <v>0.21879999999999999</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>0.1547</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>0.60289999999999999</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="Q29" s="2"/>
-    </row>
-    <row r="30" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="P29" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="R29" s="2"/>
+    </row>
+    <row r="30" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>3</v>
+      </c>
+      <c r="B30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="3">
+      <c r="C30" s="3">
         <v>49.9</v>
       </c>
-      <c r="C30" s="3">
+      <c r="D30" s="3">
         <v>547.79999999999995</v>
       </c>
-      <c r="D30" s="3">
+      <c r="E30" s="3">
         <v>14.45</v>
       </c>
-      <c r="E30" s="4">
-        <v>0.22</v>
-      </c>
       <c r="F30" s="4">
-        <v>0.155</v>
+        <v>0.22</v>
       </c>
       <c r="G30" s="4">
-        <v>0.625</v>
+        <v>0.155</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I30" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J30" s="3">
         <v>0.2039</v>
       </c>
-      <c r="J30" s="3">
+      <c r="K30" s="3">
         <v>0.1605</v>
       </c>
-      <c r="K30" s="3">
+      <c r="L30" s="3">
         <v>0.58250000000000002</v>
       </c>
-      <c r="L30" s="3">
+      <c r="M30" s="3">
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="M30" s="3">
+      <c r="N30" s="3">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="N30" s="3">
+      <c r="O30" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="O30" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="Q30" s="2"/>
-    </row>
-    <row r="31" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="P30" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="R30" s="2"/>
+    </row>
+    <row r="31" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>3</v>
+      </c>
+      <c r="B31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="3">
+      <c r="C31" s="3">
         <v>50</v>
       </c>
-      <c r="C31" s="3">
+      <c r="D31" s="3">
         <v>547.79999999999995</v>
       </c>
-      <c r="D31" s="3">
+      <c r="E31" s="3">
         <v>27.79</v>
       </c>
-      <c r="E31" s="4">
-        <v>0.22</v>
-      </c>
       <c r="F31" s="4">
-        <v>0.155</v>
+        <v>0.22</v>
       </c>
       <c r="G31" s="4">
-        <v>0.625</v>
+        <v>0.155</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="0"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="I31" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J31" s="3">
         <v>0.21129999999999999</v>
       </c>
-      <c r="J31" s="3">
+      <c r="K31" s="3">
         <v>0.15690000000000001</v>
       </c>
-      <c r="K31" s="3">
+      <c r="L31" s="3">
         <v>0.59370000000000001</v>
       </c>
-      <c r="L31" s="3">
+      <c r="M31" s="3">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="M31" s="3">
+      <c r="N31" s="3">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="N31" s="3">
+      <c r="O31" s="3">
         <v>1E-4</v>
       </c>
-      <c r="O31" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="Q31" s="2"/>
+      <c r="P31" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="R31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="1.25" right="1.25" top="1" bottom="0.79166666666666696" header="0.25" footer="0.25"/>
